--- a/Table/client/lua/exe/temp/S 神兽基础表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽基础表.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\td1_and_dt\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB346B-3EFD-40F5-9048-F20B268DA85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -165,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,12 +209,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -255,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -403,7 +402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -436,7 +435,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
   <si>
     <t>神兽ID</t>
   </si>
@@ -498,9 +497,6 @@
     <t>shenshou_101.png</t>
   </si>
   <si>
-    <t>飞马</t>
-  </si>
-  <si>
     <t>1,8400;2,280;3,140;4,140</t>
   </si>
   <si>
@@ -576,9 +572,6 @@
     <t>shenshou_161.png</t>
   </si>
   <si>
-    <t>齿虎</t>
-  </si>
-  <si>
     <t>1,29760;2,992;3,496;4,496</t>
   </si>
   <si>
@@ -606,9 +599,6 @@
     <t>shenshou_181.png</t>
   </si>
   <si>
-    <t>穴狮</t>
-  </si>
-  <si>
     <t>1,39600;2,1320;3,660;4,660</t>
   </si>
   <si>
@@ -655,9 +645,6 @@
   </si>
   <si>
     <t>1,117540;2,3918;3,1959;4,1959</t>
-  </si>
-  <si>
-    <t>青龙</t>
   </si>
   <si>
     <t>1,130800;2,4360;3,2180;4,2180</t>
@@ -857,9 +844,6 @@
     <t>仙狐</t>
   </si>
   <si>
-    <t>利鹰</t>
-  </si>
-  <si>
     <t>天狼</t>
   </si>
   <si>
@@ -875,20 +859,156 @@
     <t>夔牛</t>
   </si>
   <si>
-    <t>腾蛇</t>
-  </si>
-  <si>
     <t>麒麟</t>
   </si>
   <si>
-    <t>远古圣龙</t>
+    <t>飛馬</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>利鷹</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>齒虎</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>穴獅</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>騰蛇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>青龍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>遠古聖龍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>각록</t>
+  </si>
+  <si>
+    <t>비마</t>
+  </si>
+  <si>
+    <t>선호</t>
+  </si>
+  <si>
+    <t>독수리</t>
+  </si>
+  <si>
+    <t>천랑</t>
+  </si>
+  <si>
+    <t>밤의 표범</t>
+  </si>
+  <si>
+    <t>털코뿔소</t>
+  </si>
+  <si>
+    <t>치호</t>
+  </si>
+  <si>
+    <t>동굴곰</t>
+  </si>
+  <si>
+    <t>동굴사자</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>신성코끼리</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>거대원숭이</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>기우</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>등사</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>기린</t>
+    </r>
+  </si>
+  <si>
+    <t>현무</t>
+  </si>
+  <si>
+    <t>주작</t>
+  </si>
+  <si>
+    <t>백호</t>
+  </si>
+  <si>
+    <t>청룡</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>고대 성룡</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,8 +1058,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +1088,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1019,6 +1152,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1342,92 +1481,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="14" max="14" width="13.125" customWidth="1"/>
-    <col min="15" max="15" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+    <col min="16" max="16" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10101</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>290</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>10101001</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2">
-        <v>1</v>
-      </c>
+      <c r="I2" s="1"/>
       <c r="J2">
         <v>1</v>
       </c>
@@ -1440,41 +1579,44 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10102</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3">
+        <v>290</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
-        <v>290</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="F3" s="10">
         <v>10104001</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3">
-        <v>2</v>
-      </c>
+      <c r="G3" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1482,388 +1624,415 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10103</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
         <v>290</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10">
+        <v>10103001</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="10">
-        <v>10103001</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10104</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5">
         <v>290</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10105</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6">
         <v>290</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="10">
+        <v>10101002</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="10">
-        <v>10101002</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="P6" t="s">
         <v>34</v>
       </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10106</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7">
         <v>290</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="H7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="P7" t="s">
         <v>39</v>
       </c>
-      <c r="O7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10107</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>290</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>44</v>
       </c>
-      <c r="O8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10108</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9">
+        <v>290</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="C9">
-        <v>290</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="P9" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>49</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10109</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C10">
-        <v>290</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="10">
+        <v>10301001</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="P10" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="10">
-        <v>10301001</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10110</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11">
+        <v>290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10">
+        <v>10302001</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
-        <v>290</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="P11" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="10">
-        <v>10302001</v>
-      </c>
-      <c r="I11">
-        <v>4</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10111</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12">
         <v>320</v>
       </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="10">
+      <c r="F12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="10">
         <v>10303001</v>
       </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
       <c r="J12">
         <v>4</v>
       </c>
@@ -1876,42 +2045,45 @@
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10112</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13">
         <v>320</v>
       </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="10">
+      <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="10">
         <v>10304001</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
       <c r="K13">
         <v>4</v>
       </c>
@@ -1921,38 +2093,41 @@
       <c r="M13">
         <v>4</v>
       </c>
-      <c r="N13" s="15" t="s">
-        <v>108</v>
+      <c r="N13">
+        <v>4</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="P13" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10113</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14">
         <v>320</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="10">
+      <c r="E14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="10">
         <v>10305001</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
       </c>
       <c r="J14">
         <v>5</v>
@@ -1961,43 +2136,46 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10114</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>320</v>
       </c>
-      <c r="D15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="10">
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="10">
         <v>10306001</v>
-      </c>
-      <c r="I15">
-        <v>5</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -2011,38 +2189,41 @@
       <c r="M15">
         <v>5</v>
       </c>
-      <c r="N15" t="s">
-        <v>112</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>5</v>
+      </c>
+      <c r="O15" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10115</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16">
         <v>320</v>
       </c>
-      <c r="D16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="10">
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="10">
         <v>10307001</v>
-      </c>
-      <c r="I16">
-        <v>5</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -2056,41 +2237,44 @@
       <c r="M16">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>5</v>
+      </c>
+      <c r="O16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10116</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17">
         <v>999</v>
       </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F17" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="10">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="10">
         <v>10308001</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>6</v>
-      </c>
-      <c r="J17">
-        <v>5</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2101,42 +2285,45 @@
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10117</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18">
         <v>999</v>
       </c>
-      <c r="D18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18">
-        <v>6</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2144,37 +2331,40 @@
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10118</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
         <v>999</v>
       </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
       <c r="H19" s="1"/>
-      <c r="I19">
-        <v>6</v>
-      </c>
+      <c r="I19" s="1"/>
       <c r="J19">
         <v>6</v>
       </c>
@@ -2182,42 +2372,45 @@
         <v>6</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10119</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
         <v>999</v>
       </c>
-      <c r="D20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="1"/>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
       <c r="H20" s="1"/>
-      <c r="I20">
-        <v>6</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20">
         <v>6</v>
       </c>
@@ -2228,39 +2421,42 @@
         <v>6</v>
       </c>
       <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
         <v>5</v>
       </c>
-      <c r="N20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="O20" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10120</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>999</v>
       </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
       <c r="H21" s="1"/>
-      <c r="I21">
-        <v>6</v>
-      </c>
+      <c r="I21" s="1"/>
       <c r="J21">
         <v>6</v>
       </c>
@@ -2273,18 +2469,21 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21" t="s">
-        <v>124</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="H24" s="10"/>
+      <c r="N21">
+        <v>6</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="I24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2295,7 +2494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP46"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2316,73 +2515,73 @@
   <sheetData>
     <row r="2" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
         <v>76</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2" t="s">
         <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>81</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AO2" s="8">
         <v>18</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2477,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2571,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2666,7 +2865,7 @@
         <v>21</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="15.75" x14ac:dyDescent="0.3">
@@ -3745,33 +3944,33 @@
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
@@ -4208,7 +4407,7 @@
         <v>2115</v>
       </c>
       <c r="T25" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="U25">
         <f>(238+102)*10</f>
@@ -4244,7 +4443,7 @@
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="T26" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="U26">
         <f>194*10+9000*0.5</f>
@@ -4287,7 +4486,7 @@
         <v>180</v>
       </c>
       <c r="T27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="U27">
         <f>13951*0.5+299*10</f>
@@ -4328,7 +4527,7 @@
         <v>100</v>
       </c>
       <c r="T28" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="U28">
         <f>(980+420)*10</f>
@@ -4648,8 +4847,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Table/client/lua/exe/temp/S 神兽基础表.xlsx
+++ b/Table/client/lua/exe/temp/S 神兽基础表.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\td1_2019_and_hg\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\td1_and_dt\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAB346B-3EFD-40F5-9048-F20B268DA85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="28830" windowHeight="15630"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,12 +29,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -145,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,12 +210,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -254,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -334,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -402,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +436,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
   <si>
     <t>神兽ID</t>
   </si>
@@ -497,6 +498,9 @@
     <t>shenshou_101.png</t>
   </si>
   <si>
+    <t>飞马</t>
+  </si>
+  <si>
     <t>1,8400;2,280;3,140;4,140</t>
   </si>
   <si>
@@ -572,6 +576,9 @@
     <t>shenshou_161.png</t>
   </si>
   <si>
+    <t>齿虎</t>
+  </si>
+  <si>
     <t>1,29760;2,992;3,496;4,496</t>
   </si>
   <si>
@@ -599,6 +606,9 @@
     <t>shenshou_181.png</t>
   </si>
   <si>
+    <t>穴狮</t>
+  </si>
+  <si>
     <t>1,39600;2,1320;3,660;4,660</t>
   </si>
   <si>
@@ -645,6 +655,9 @@
   </si>
   <si>
     <t>1,117540;2,3918;3,1959;4,1959</t>
+  </si>
+  <si>
+    <t>青龙</t>
   </si>
   <si>
     <t>1,130800;2,4360;3,2180;4,2180</t>
@@ -844,6 +857,9 @@
     <t>仙狐</t>
   </si>
   <si>
+    <t>利鹰</t>
+  </si>
+  <si>
     <t>天狼</t>
   </si>
   <si>
@@ -859,156 +875,20 @@
     <t>夔牛</t>
   </si>
   <si>
+    <t>腾蛇</t>
+  </si>
+  <si>
     <t>麒麟</t>
   </si>
   <si>
-    <t>飛馬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>利鷹</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>齒虎</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>穴獅</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>騰蛇</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>青龍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>遠古聖龍</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>각록</t>
-  </si>
-  <si>
-    <t>비마</t>
-  </si>
-  <si>
-    <t>선호</t>
-  </si>
-  <si>
-    <t>독수리</t>
-  </si>
-  <si>
-    <t>천랑</t>
-  </si>
-  <si>
-    <t>밤의 표범</t>
-  </si>
-  <si>
-    <t>털코뿔소</t>
-  </si>
-  <si>
-    <t>치호</t>
-  </si>
-  <si>
-    <t>동굴곰</t>
-  </si>
-  <si>
-    <t>동굴사자</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>신성코끼리</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>거대원숭이</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>기우</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>등사</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>기린</t>
-    </r>
-  </si>
-  <si>
-    <t>현무</t>
-  </si>
-  <si>
-    <t>주작</t>
-  </si>
-  <si>
-    <t>백호</t>
-  </si>
-  <si>
-    <t>청룡</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>고대 성룡</t>
-    </r>
+    <t>远古圣龙</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,15 +938,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1088,12 +961,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1152,12 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1481,92 +1342,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="26.75" customWidth="1"/>
-    <col min="6" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="15" max="15" width="13.125" customWidth="1"/>
-    <col min="16" max="16" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10101</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="C2">
         <v>290</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="10">
+      <c r="E2" s="10">
         <v>10101001</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -1579,44 +1440,41 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>1</v>
+      <c r="N2" t="s">
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10102</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3">
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
         <v>290</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10">
         <v>10104001</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="F3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1624,39 +1482,36 @@
       <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>1</v>
+      <c r="N3" t="s">
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10103</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4">
         <v>290</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10">
         <v>10103001</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4">
+        <v>2</v>
+      </c>
       <c r="J4">
         <v>2</v>
       </c>
@@ -1669,41 +1524,38 @@
       <c r="M4">
         <v>2</v>
       </c>
-      <c r="N4">
-        <v>2</v>
+      <c r="N4" t="s">
+        <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10104</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5">
         <v>290</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="E5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5">
+        <v>3</v>
+      </c>
       <c r="J5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1714,44 +1566,41 @@
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5">
-        <v>2</v>
+      <c r="N5" t="s">
+        <v>30</v>
       </c>
       <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10105</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6">
         <v>290</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10">
         <v>10101002</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="F6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6">
+        <v>3</v>
+      </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1759,42 +1608,39 @@
       <c r="M6">
         <v>2</v>
       </c>
-      <c r="N6">
-        <v>2</v>
+      <c r="N6" t="s">
+        <v>34</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10106</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7">
         <v>290</v>
       </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="E7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7">
+        <v>3</v>
+      </c>
       <c r="J7">
         <v>3</v>
       </c>
@@ -1807,42 +1653,39 @@
       <c r="M7">
         <v>3</v>
       </c>
-      <c r="N7">
-        <v>3</v>
+      <c r="N7" t="s">
+        <v>39</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10107</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
         <v>290</v>
       </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8">
+        <v>3</v>
+      </c>
       <c r="J8">
         <v>3</v>
       </c>
@@ -1855,44 +1698,41 @@
       <c r="M8">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>3</v>
+      <c r="N8" t="s">
+        <v>44</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10108</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
         <v>290</v>
       </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="10"/>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9">
+        <v>4</v>
+      </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1903,41 +1743,38 @@
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9">
-        <v>3</v>
+      <c r="N9" t="s">
+        <v>49</v>
       </c>
       <c r="O9" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10109</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10">
         <v>290</v>
       </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="10">
         <v>10301001</v>
       </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
       <c r="J10">
         <v>4</v>
       </c>
@@ -1945,46 +1782,43 @@
         <v>4</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
         <v>3</v>
       </c>
-      <c r="N10">
-        <v>3</v>
+      <c r="N10" t="s">
+        <v>54</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10110</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
         <v>290</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="10">
         <v>10302001</v>
       </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
       <c r="J11">
         <v>4</v>
       </c>
@@ -1997,42 +1831,39 @@
       <c r="M11">
         <v>4</v>
       </c>
-      <c r="N11">
-        <v>4</v>
+      <c r="N11" t="s">
+        <v>59</v>
       </c>
       <c r="O11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10111</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="10">
+      <c r="G12" s="1"/>
+      <c r="H12" s="10">
         <v>10303001</v>
       </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
       <c r="J12">
         <v>4</v>
       </c>
@@ -2045,44 +1876,41 @@
       <c r="M12">
         <v>4</v>
       </c>
-      <c r="N12">
-        <v>4</v>
-      </c>
-      <c r="O12" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10112</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13">
         <v>320</v>
       </c>
-      <c r="E13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="10">
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="10">
         <v>10304001</v>
       </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
       <c r="J13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -2093,42 +1921,39 @@
       <c r="M13">
         <v>4</v>
       </c>
-      <c r="N13">
-        <v>4</v>
+      <c r="N13" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="P13" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10113</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14">
         <v>320</v>
       </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="10">
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="10">
         <v>10305001</v>
       </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
       <c r="J14">
         <v>5</v>
       </c>
@@ -2136,47 +1961,44 @@
         <v>5</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14">
         <v>4</v>
       </c>
-      <c r="N14">
-        <v>4</v>
-      </c>
-      <c r="O14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10114</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D15">
+      <c r="C15">
         <v>320</v>
       </c>
-      <c r="E15" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="10">
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="10">
         <v>10306001</v>
       </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
       <c r="J15">
         <v>5</v>
       </c>
@@ -2189,42 +2011,39 @@
       <c r="M15">
         <v>5</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>108</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10115</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16">
         <v>320</v>
       </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="10">
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="10">
         <v>10307001</v>
       </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
       <c r="J16">
         <v>5</v>
       </c>
@@ -2237,44 +2056,41 @@
       <c r="M16">
         <v>5</v>
       </c>
-      <c r="N16">
-        <v>5</v>
-      </c>
-      <c r="O16" t="s">
-        <v>110</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>114</v>
+      </c>
+      <c r="O16" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10116</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17">
         <v>999</v>
       </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="10">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="10">
         <v>10308001</v>
       </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
       <c r="J17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K17">
         <v>5</v>
@@ -2285,45 +2101,42 @@
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17">
-        <v>5</v>
-      </c>
-      <c r="O17" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10117</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18">
+      <c r="B18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18">
         <v>999</v>
       </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18">
+        <v>6</v>
+      </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2331,40 +2144,37 @@
       <c r="M18">
         <v>5</v>
       </c>
-      <c r="N18">
-        <v>5</v>
-      </c>
-      <c r="O18" t="s">
-        <v>114</v>
-      </c>
-      <c r="P18" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10118</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19">
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19">
         <v>999</v>
       </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19">
+        <v>6</v>
+      </c>
       <c r="J19">
         <v>6</v>
       </c>
@@ -2372,45 +2182,42 @@
         <v>6</v>
       </c>
       <c r="L19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19">
-        <v>5</v>
-      </c>
-      <c r="O19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>120</v>
+      </c>
+      <c r="O19" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10119</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20">
+      <c r="B20" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20">
         <v>999</v>
       </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
+      <c r="D20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20">
+        <v>6</v>
+      </c>
       <c r="J20">
         <v>6</v>
       </c>
@@ -2421,42 +2228,39 @@
         <v>6</v>
       </c>
       <c r="M20">
-        <v>6</v>
-      </c>
-      <c r="N20">
-        <v>5</v>
-      </c>
-      <c r="O20" t="s">
-        <v>118</v>
-      </c>
-      <c r="P20" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10120</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>999</v>
       </c>
-      <c r="E21" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21">
+        <v>6</v>
+      </c>
       <c r="J21">
         <v>6</v>
       </c>
@@ -2469,21 +2273,18 @@
       <c r="M21">
         <v>6</v>
       </c>
-      <c r="N21">
-        <v>6</v>
-      </c>
-      <c r="O21" t="s">
-        <v>120</v>
-      </c>
-      <c r="P21" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="I24" s="10"/>
+      <c r="N21" t="s">
+        <v>124</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H24" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2494,7 +2295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AP46"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -2515,73 +2316,73 @@
   <sheetData>
     <row r="2" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH2" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AO2" s="8">
         <v>18</v>
       </c>
       <c r="AP2" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2676,7 +2477,7 @@
         <v>19</v>
       </c>
       <c r="AP3" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2770,7 +2571,7 @@
         <v>20</v>
       </c>
       <c r="AP4" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:42" ht="16.5" x14ac:dyDescent="0.3">
@@ -2865,7 +2666,7 @@
         <v>21</v>
       </c>
       <c r="AP5" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:42" ht="15.75" x14ac:dyDescent="0.3">
@@ -3944,33 +3745,33 @@
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AG18" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH18" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AI18" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AK18" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AL18" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AM18" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="2:39" ht="15.75" x14ac:dyDescent="0.3">
@@ -4407,7 +4208,7 @@
         <v>2115</v>
       </c>
       <c r="T25" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="U25">
         <f>(238+102)*10</f>
@@ -4443,7 +4244,7 @@
     </row>
     <row r="26" spans="2:39" x14ac:dyDescent="0.2">
       <c r="T26" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="U26">
         <f>194*10+9000*0.5</f>
@@ -4486,7 +4287,7 @@
         <v>180</v>
       </c>
       <c r="T27" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="U27">
         <f>13951*0.5+299*10</f>
@@ -4527,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="T28" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="U28">
         <f>(980+420)*10</f>
@@ -4847,8 +4648,8 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>